--- a/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
+++ b/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C114AC62-5A26-4344-813A-1BC4B5D9DA8D}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B81086EF-BFEF-4EE5-AF4A-A51F654CAF99}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
   </bookViews>
   <sheets>
     <sheet name="no_MALDI_ID PCR_candidates" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -441,7 +439,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>347469</xdr:colOff>
+      <xdr:colOff>350645</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>18202</xdr:rowOff>
     </xdr:to>
@@ -450,7 +448,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA753558-C5D7-40FA-A7BA-0A475F6B63B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -502,16 +500,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>12806</xdr:colOff>
+      <xdr:colOff>9632</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>86849</xdr:rowOff>
+      <xdr:rowOff>83674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA753558-C5D7-40FA-A7BA-0A475F6B63B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -856,14 +854,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118912D8-D68D-4B1C-8500-D74DF975741E}">
   <dimension ref="B1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="74" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="17.6328125" customWidth="1"/>
     <col min="4" max="4" width="35.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
+++ b/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B81086EF-BFEF-4EE5-AF4A-A51F654CAF99}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29EBB227-937D-4F26-83C8-AE2136CD1AB5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
   </bookViews>
   <sheets>
     <sheet name="no_MALDI_ID PCR_candidates" sheetId="1" r:id="rId1"/>
+    <sheet name="rpob mystery PCR status" sheetId="7" r:id="rId2"/>
+    <sheet name="16S mystery PCR status" sheetId="3" r:id="rId3"/>
+    <sheet name="16S for submission" sheetId="6" r:id="rId4"/>
+    <sheet name="staph sp" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="241">
   <si>
     <t>Corynebac</t>
   </si>
@@ -326,13 +330,442 @@
   </si>
   <si>
     <t>yes, Lena RF second</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>cow_id</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>path_1</t>
+  </si>
+  <si>
+    <t>path1_imi</t>
+  </si>
+  <si>
+    <t>path_2</t>
+  </si>
+  <si>
+    <t>path2_imi</t>
+  </si>
+  <si>
+    <t>path_3</t>
+  </si>
+  <si>
+    <t>path3_imi</t>
+  </si>
+  <si>
+    <t>path_4</t>
+  </si>
+  <si>
+    <t>path4_imi</t>
+  </si>
+  <si>
+    <t>quarter_code</t>
+  </si>
+  <si>
+    <t>isolate_1</t>
+  </si>
+  <si>
+    <t>path_1_maldi_final_id</t>
+  </si>
+  <si>
+    <t>MALDI ID 1</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>MALDI ID 2</t>
+  </si>
+  <si>
+    <t>12.17.2019</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>cb5</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>cns</t>
+  </si>
+  <si>
+    <t>yes1</t>
+  </si>
+  <si>
+    <t>bj004</t>
+  </si>
+  <si>
+    <t>staphylococcus species</t>
+  </si>
+  <si>
+    <t>Staphylococcus agnetis</t>
+  </si>
+  <si>
+    <t>Staphylococcus hyicus</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>yes2</t>
+  </si>
+  <si>
+    <t>bj016</t>
+  </si>
+  <si>
+    <t>1.29.2020</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>bj030</t>
+  </si>
+  <si>
+    <t>bj043</t>
+  </si>
+  <si>
+    <t>2.26.2020</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>bj054</t>
+  </si>
+  <si>
+    <t>bj069</t>
+  </si>
+  <si>
+    <t>1.2.2020</t>
+  </si>
+  <si>
+    <t>Butterworks</t>
+  </si>
+  <si>
+    <t>manzana</t>
+  </si>
+  <si>
+    <t>bw029</t>
+  </si>
+  <si>
+    <t>chipotle</t>
+  </si>
+  <si>
+    <t>bw059</t>
+  </si>
+  <si>
+    <t>bw060</t>
+  </si>
+  <si>
+    <t>2.4.2020</t>
+  </si>
+  <si>
+    <t>bw089</t>
+  </si>
+  <si>
+    <t>bw110</t>
+  </si>
+  <si>
+    <t>bw111</t>
+  </si>
+  <si>
+    <t>3.3.2020</t>
+  </si>
+  <si>
+    <t>bw137</t>
+  </si>
+  <si>
+    <t>12.11.2019</t>
+  </si>
+  <si>
+    <t>Choiniere</t>
+  </si>
+  <si>
+    <t>cf020</t>
+  </si>
+  <si>
+    <t>Staphylococcus chromogenes</t>
+  </si>
+  <si>
+    <t>cf052</t>
+  </si>
+  <si>
+    <t>cf053</t>
+  </si>
+  <si>
+    <t>1.21.2020</t>
+  </si>
+  <si>
+    <t>cf105</t>
+  </si>
+  <si>
+    <t>cf129</t>
+  </si>
+  <si>
+    <t>3.16.2020</t>
+  </si>
+  <si>
+    <t>fourth</t>
+  </si>
+  <si>
+    <t>corynebac</t>
+  </si>
+  <si>
+    <t>other18</t>
+  </si>
+  <si>
+    <t>cf191</t>
+  </si>
+  <si>
+    <t>cf221</t>
+  </si>
+  <si>
+    <t>3.19.2020</t>
+  </si>
+  <si>
+    <t>Glennview</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>gv156</t>
+  </si>
+  <si>
+    <t>Staphylococcus pseudintermedius</t>
+  </si>
+  <si>
+    <t>Staphylococcus intermedius</t>
+  </si>
+  <si>
+    <t>1.3.2020</t>
+  </si>
+  <si>
+    <t>OughtaBe</t>
+  </si>
+  <si>
+    <t>applepie</t>
+  </si>
+  <si>
+    <t>ob047</t>
+  </si>
+  <si>
+    <t>2.14.2020</t>
+  </si>
+  <si>
+    <t>ob104</t>
+  </si>
+  <si>
+    <t>3.12.2020</t>
+  </si>
+  <si>
+    <t>grape</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>ob119</t>
+  </si>
+  <si>
+    <t>12.12.2019</t>
+  </si>
+  <si>
+    <t>StonyPond</t>
+  </si>
+  <si>
+    <t>rashida</t>
+  </si>
+  <si>
+    <t>sp029</t>
+  </si>
+  <si>
+    <t>1.10.2020</t>
+  </si>
+  <si>
+    <t>sp057</t>
+  </si>
+  <si>
+    <t>12.13.2019</t>
+  </si>
+  <si>
+    <t>Swallowdale</t>
+  </si>
+  <si>
+    <t>marshmellow</t>
+  </si>
+  <si>
+    <t>sw044</t>
+  </si>
+  <si>
+    <t>1.22.2020</t>
+  </si>
+  <si>
+    <t>sw069</t>
+  </si>
+  <si>
+    <t>2.28.2020</t>
+  </si>
+  <si>
+    <t>sw118</t>
+  </si>
+  <si>
+    <t>1.6.2020</t>
+  </si>
+  <si>
+    <t>vonTrapp</t>
+  </si>
+  <si>
+    <t>leopard</t>
+  </si>
+  <si>
+    <t>other9</t>
+  </si>
+  <si>
+    <t>vt007</t>
+  </si>
+  <si>
+    <t>3.10.2020</t>
+  </si>
+  <si>
+    <t>vt067</t>
+  </si>
+  <si>
+    <t>GX2-9P4-RSS-QZQ</t>
+  </si>
+  <si>
+    <t>good 16S PCR product?</t>
+  </si>
+  <si>
+    <t>date of PCR to use</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>with EMB primers, amplification with lots of bands (10.10)</t>
+  </si>
+  <si>
+    <t>good single band with EMB primers 10.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple (3) bands 10.12 </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>VERY faint band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple (2) bands 10.12 </t>
+  </si>
+  <si>
+    <t>moderate/faint single band with EMB primers 10.10; no amplification with 16S 10.12</t>
+  </si>
+  <si>
+    <t>very faint band</t>
+  </si>
+  <si>
+    <t>multiple (2) bands 10.13</t>
+  </si>
+  <si>
+    <t>didn't amplify 10.13.22; checked DNA on gel 10.18.22, no band</t>
+  </si>
+  <si>
+    <t>yes, fainter</t>
+  </si>
+  <si>
+    <t>yes, but VERY faint</t>
+  </si>
+  <si>
+    <t>coag positive</t>
+  </si>
+  <si>
+    <t>didn't run</t>
+  </si>
+  <si>
+    <t>coag neg</t>
+  </si>
+  <si>
+    <t>coag positive, but soft</t>
+  </si>
+  <si>
+    <t>can't get to grow well in broth for extraction</t>
+  </si>
+  <si>
+    <t>think I have the DNA now, just need to do a PCR with it</t>
+  </si>
+  <si>
+    <t>have on BA, need to do DNA extraction</t>
+  </si>
+  <si>
+    <t>good rpob PCR product?</t>
+  </si>
+  <si>
+    <t>very bright band</t>
+  </si>
+  <si>
+    <t>moderate band</t>
+  </si>
+  <si>
+    <t>faint but present band</t>
+  </si>
+  <si>
+    <t>11.22.22</t>
+  </si>
+  <si>
+    <t>was in small run which checked for negative control (malea's primer's contaminated)</t>
+  </si>
+  <si>
+    <t>ADD STAPH SPECIES ONE! (SW44)</t>
+  </si>
+  <si>
+    <t>DNA extracted 11.22.22</t>
+  </si>
+  <si>
+    <t>pretty good band</t>
+  </si>
+  <si>
+    <t>11.23.22</t>
+  </si>
+  <si>
+    <t>bright band</t>
+  </si>
+  <si>
+    <t>good band</t>
+  </si>
+  <si>
+    <t>multiple bands!!</t>
+  </si>
+  <si>
+    <t>nothing- check DNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +782,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +827,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,13 +864,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,9 +892,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFDDDDDD"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -553,6 +1033,18 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -852,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118912D8-D68D-4B1C-8500-D74DF975741E}">
-  <dimension ref="B1:E54"/>
+  <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1059,7 +1551,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1073,7 +1565,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1087,7 +1579,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1100,8 +1592,11 @@
       <c r="E19" s="3">
         <v>18000</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
@@ -1112,7 +1607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1126,7 +1621,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1140,7 +1635,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1154,7 +1649,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1168,7 +1663,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1182,7 +1677,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1196,7 +1691,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
@@ -1210,7 +1705,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
@@ -1224,7 +1719,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>23</v>
       </c>
@@ -1238,7 +1733,7 @@
         <v>970000</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
@@ -1509,4 +2004,2585 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C11C37-D12C-4268-90A4-1C0D958E2F90}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="78.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7781F3C-2072-4D76-A323-34240553BFE1}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="78.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40">
+        <v>10.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4307D245-77E7-4043-9301-6BB92C496448}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:C23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE50B8F-2807-40F8-AC83-B9FAC2ECE3BB}">
+  <dimension ref="A1:T84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2">
+        <v>731</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2">
+        <v>2.1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3">
+        <v>731</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3">
+        <v>2.02</v>
+      </c>
+      <c r="T3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4">
+        <v>731</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4">
+        <v>1.88</v>
+      </c>
+      <c r="T4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6">
+        <v>2.21</v>
+      </c>
+      <c r="T6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7">
+        <v>2.13</v>
+      </c>
+      <c r="T7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8">
+        <v>2.15</v>
+      </c>
+      <c r="T8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R10" t="s">
+        <v>127</v>
+      </c>
+      <c r="S10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="T10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S11">
+        <v>2.04</v>
+      </c>
+      <c r="T11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="T12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>125</v>
+      </c>
+      <c r="R13" t="s">
+        <v>127</v>
+      </c>
+      <c r="S13">
+        <v>1.9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>125</v>
+      </c>
+      <c r="R15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S15">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="T15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>125</v>
+      </c>
+      <c r="R16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="T16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>125</v>
+      </c>
+      <c r="R17" t="s">
+        <v>126</v>
+      </c>
+      <c r="S17">
+        <v>2.08</v>
+      </c>
+      <c r="T17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>125</v>
+      </c>
+      <c r="R19" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="T19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R20" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="T20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>125</v>
+      </c>
+      <c r="R21" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21">
+        <v>2.33</v>
+      </c>
+      <c r="T21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22" t="s">
+        <v>126</v>
+      </c>
+      <c r="S22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="6">
+        <v>32</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6">
+        <v>2</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S24" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>129</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>125</v>
+      </c>
+      <c r="R25" t="s">
+        <v>127</v>
+      </c>
+      <c r="S25">
+        <v>2.06</v>
+      </c>
+      <c r="T25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>125</v>
+      </c>
+      <c r="R26" t="s">
+        <v>127</v>
+      </c>
+      <c r="S26">
+        <v>1.87</v>
+      </c>
+      <c r="T26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="6">
+        <v>169</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6">
+        <v>2</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="S28" s="6">
+        <v>1.89</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" t="s">
+        <v>129</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>125</v>
+      </c>
+      <c r="R30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S30">
+        <v>2.11</v>
+      </c>
+      <c r="T30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" t="s">
+        <v>129</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>125</v>
+      </c>
+      <c r="R31" t="s">
+        <v>127</v>
+      </c>
+      <c r="S31">
+        <v>2.12</v>
+      </c>
+      <c r="T31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" t="s">
+        <v>129</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>125</v>
+      </c>
+      <c r="R33" t="s">
+        <v>127</v>
+      </c>
+      <c r="S33">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="T33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" t="s">
+        <v>129</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>125</v>
+      </c>
+      <c r="R35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S35">
+        <v>2.31</v>
+      </c>
+      <c r="T35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" t="s">
+        <v>129</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="P36" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>125</v>
+      </c>
+      <c r="R36" t="s">
+        <v>126</v>
+      </c>
+      <c r="S36">
+        <v>2.21</v>
+      </c>
+      <c r="T36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" t="s">
+        <v>129</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>125</v>
+      </c>
+      <c r="R38" t="s">
+        <v>126</v>
+      </c>
+      <c r="S38">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="T38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" t="s">
+        <v>129</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>125</v>
+      </c>
+      <c r="R39" t="s">
+        <v>126</v>
+      </c>
+      <c r="S39">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="T39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" t="s">
+        <v>129</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>125</v>
+      </c>
+      <c r="R40" t="s">
+        <v>126</v>
+      </c>
+      <c r="S40">
+        <v>1.91</v>
+      </c>
+      <c r="T40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" t="s">
+        <v>200</v>
+      </c>
+      <c r="O41">
+        <v>9</v>
+      </c>
+      <c r="P41" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>125</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S41">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="T41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" t="s">
+        <v>129</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>125</v>
+      </c>
+      <c r="R42" t="s">
+        <v>126</v>
+      </c>
+      <c r="S42">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="T42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C47" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C48" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C49" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C51" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C52" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C54" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C55" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C56" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C57" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C58" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C59" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C60" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C62" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C63" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C64" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C65" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C66" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C67" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C68" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C70" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C72" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C73" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C74" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C76" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C77" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C78" s="8"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C79" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C80" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C81" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C83" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C84" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C49:C52">
+    <sortCondition ref="C48:C52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
+++ b/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29EBB227-937D-4F26-83C8-AE2136CD1AB5}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80531125-960C-4A08-94E0-41D34D2FFF36}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
   </bookViews>
   <sheets>
     <sheet name="no_MALDI_ID PCR_candidates" sheetId="1" r:id="rId1"/>
     <sheet name="rpob mystery PCR status" sheetId="7" r:id="rId2"/>
     <sheet name="16S mystery PCR status" sheetId="3" r:id="rId3"/>
     <sheet name="16S for submission" sheetId="6" r:id="rId4"/>
-    <sheet name="staph sp" sheetId="2" r:id="rId5"/>
+    <sheet name="rpob for submission" sheetId="8" r:id="rId5"/>
+    <sheet name="staph sp" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="250">
   <si>
     <t>Corynebac</t>
   </si>
@@ -759,6 +760,61 @@
   </si>
   <si>
     <t>nothing- check DNA</t>
+  </si>
+  <si>
+    <t>SW044</t>
+  </si>
+  <si>
+    <t>tuf-F</t>
+  </si>
+  <si>
+    <t>tuf-R</t>
+  </si>
+  <si>
+    <t>16S-F</t>
+  </si>
+  <si>
+    <t>16S-R</t>
+  </si>
+  <si>
+    <t>rpob-F</t>
+  </si>
+  <si>
+    <t>rpob-R</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>submitted 12.6.22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>submitted 12.7.22</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -843,7 +899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -860,11 +916,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -884,6 +949,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,6 +1110,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2010,9 +2080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C11C37-D12C-4268-90A4-1C0D958E2F90}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2150,13 +2220,13 @@
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -2699,10 +2769,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4307D245-77E7-4043-9301-6BB92C496448}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2710,127 +2780,713 @@
     <col min="3" max="3" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="12" t="s">
+      <c r="H23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>245</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27A51CA-3C98-47F7-B7C2-43E96BE2B05C}">
+  <dimension ref="B1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE50B8F-2807-40F8-AC83-B9FAC2ECE3BB}">
   <dimension ref="A1:T84"/>
   <sheetViews>

--- a/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
+++ b/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80531125-960C-4A08-94E0-41D34D2FFF36}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24DF69D6-42A2-4B8F-B121-9D8CED6E40CC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
   </bookViews>
   <sheets>
     <sheet name="no_MALDI_ID PCR_candidates" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="252">
   <si>
     <t>Corynebac</t>
   </si>
@@ -815,6 +815,12 @@
       </rPr>
       <t>submitted 12.7.22</t>
     </r>
+  </si>
+  <si>
+    <t>didn't yet submit</t>
+  </si>
+  <si>
+    <t>identified!</t>
   </si>
 </sst>
 </file>
@@ -929,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -940,16 +946,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,6 +1119,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2078,11 +2087,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C11C37-D12C-4268-90A4-1C0D958E2F90}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A18"/>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2090,62 +2099,66 @@
     <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" customWidth="1"/>
     <col min="4" max="4" width="78.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s">
         <v>231</v>
       </c>
       <c r="D2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="E2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s">
         <v>231</v>
       </c>
       <c r="D3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>231</v>
       </c>
       <c r="D4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -2156,7 +2169,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2165,7 +2178,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -2173,8 +2186,11 @@
         <v>237</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2183,7 +2199,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2192,7 +2208,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2200,8 +2216,11 @@
         <v>237</v>
       </c>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2210,7 +2229,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2219,16 +2238,19 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" s="10"/>
+      <c r="E13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2237,7 +2259,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2246,7 +2268,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -2258,7 +2280,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2270,7 +2292,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2282,16 +2304,19 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" t="s">
         <v>234</v>
+      </c>
+      <c r="E19" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2318,22 +2343,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" t="s">
         <v>217</v>
       </c>
@@ -2397,11 +2422,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" t="s">
         <v>224</v>
       </c>
@@ -2473,11 +2498,11 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" t="s">
         <v>217</v>
       </c>
@@ -2648,11 +2673,11 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" t="s">
         <v>226</v>
       </c>
@@ -2789,7 +2814,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>241</v>
       </c>
       <c r="I2" t="s">
@@ -3023,7 +3048,7 @@
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I23" t="s">
@@ -3216,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27A51CA-3C98-47F7-B7C2-43E96BE2B05C}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3490,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE50B8F-2807-40F8-AC83-B9FAC2ECE3BB}">
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4966,7 +4991,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C47" s="8" t="s">
+      <c r="C47" t="s">
         <v>124</v>
       </c>
       <c r="D47" t="s">
@@ -4974,7 +4999,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C48" s="8" t="s">
+      <c r="C48" t="s">
         <v>130</v>
       </c>
       <c r="D48" t="s">
@@ -4982,7 +5007,7 @@
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C49" s="8" t="s">
+      <c r="C49" t="s">
         <v>133</v>
       </c>
       <c r="D49" t="s">
@@ -4990,7 +5015,7 @@
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C50" s="8" t="s">
+      <c r="C50" t="s">
         <v>134</v>
       </c>
       <c r="D50" t="s">
@@ -4998,7 +5023,7 @@
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C51" s="8" t="s">
+      <c r="C51" t="s">
         <v>137</v>
       </c>
       <c r="D51" t="s">
@@ -5006,18 +5031,15 @@
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C52" s="8" t="s">
+      <c r="C52" t="s">
         <v>138</v>
       </c>
       <c r="D52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C53" s="8"/>
-    </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C54" s="8" t="s">
+      <c r="C54" t="s">
         <v>142</v>
       </c>
       <c r="D54" t="s">
@@ -5025,7 +5047,7 @@
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C55" s="8" t="s">
+      <c r="C55" t="s">
         <v>144</v>
       </c>
       <c r="D55" t="s">
@@ -5033,7 +5055,7 @@
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C56" s="8" t="s">
+      <c r="C56" t="s">
         <v>145</v>
       </c>
       <c r="D56" t="s">
@@ -5041,7 +5063,7 @@
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C57" s="8" t="s">
+      <c r="C57" t="s">
         <v>147</v>
       </c>
       <c r="D57" t="s">
@@ -5049,7 +5071,7 @@
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C58" s="8" t="s">
+      <c r="C58" t="s">
         <v>148</v>
       </c>
       <c r="D58" t="s">
@@ -5057,7 +5079,7 @@
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C59" s="8" t="s">
+      <c r="C59" t="s">
         <v>149</v>
       </c>
       <c r="D59" t="s">
@@ -5065,18 +5087,15 @@
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C60" s="8" t="s">
+      <c r="C60" t="s">
         <v>151</v>
       </c>
       <c r="D60" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C61" s="8"/>
-    </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C62" s="8" t="s">
+      <c r="C62" t="s">
         <v>154</v>
       </c>
       <c r="D62" t="s">
@@ -5084,7 +5103,7 @@
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C63" s="8" t="s">
+      <c r="C63" t="s">
         <v>156</v>
       </c>
       <c r="D63" t="s">
@@ -5092,7 +5111,7 @@
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C64" s="8" t="s">
+      <c r="C64" t="s">
         <v>157</v>
       </c>
       <c r="D64" t="s">
@@ -5100,7 +5119,7 @@
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C65" s="8" t="s">
+      <c r="C65" t="s">
         <v>159</v>
       </c>
       <c r="D65" t="s">
@@ -5108,7 +5127,7 @@
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C66" s="8" t="s">
+      <c r="C66" t="s">
         <v>160</v>
       </c>
       <c r="D66" t="s">
@@ -5116,7 +5135,7 @@
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C67" s="8" t="s">
+      <c r="C67" t="s">
         <v>165</v>
       </c>
       <c r="D67" t="s">
@@ -5124,29 +5143,23 @@
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C68" s="8" t="s">
+      <c r="C68" t="s">
         <v>166</v>
       </c>
       <c r="D68" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C69" s="8"/>
-    </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C70" s="8" t="s">
+      <c r="C70" t="s">
         <v>170</v>
       </c>
       <c r="D70" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C71" s="8"/>
-    </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C72" s="8" t="s">
+      <c r="C72" t="s">
         <v>176</v>
       </c>
       <c r="D72" t="s">
@@ -5154,7 +5167,7 @@
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C73" s="8" t="s">
+      <c r="C73" t="s">
         <v>178</v>
       </c>
       <c r="D73" t="s">
@@ -5162,18 +5175,15 @@
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C74" s="8" t="s">
+      <c r="C74" t="s">
         <v>182</v>
       </c>
       <c r="D74" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C75" s="8"/>
-    </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C76" s="8" t="s">
+      <c r="C76" t="s">
         <v>186</v>
       </c>
       <c r="D76" t="s">
@@ -5181,18 +5191,15 @@
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C77" s="8" t="s">
+      <c r="C77" t="s">
         <v>188</v>
       </c>
       <c r="D77" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C78" s="8"/>
-    </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C79" s="8" t="s">
+      <c r="C79" t="s">
         <v>192</v>
       </c>
       <c r="D79" t="s">
@@ -5200,7 +5207,7 @@
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C80" s="8" t="s">
+      <c r="C80" t="s">
         <v>194</v>
       </c>
       <c r="D80" t="s">
@@ -5208,18 +5215,15 @@
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C81" s="8" t="s">
+      <c r="C81" t="s">
         <v>196</v>
       </c>
       <c r="D81" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C82" s="8"/>
-    </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C83" s="8" t="s">
+      <c r="C83" t="s">
         <v>201</v>
       </c>
       <c r="D83" t="s">
@@ -5227,7 +5231,7 @@
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C84" s="8" t="s">
+      <c r="C84" t="s">
         <v>203</v>
       </c>
       <c r="D84" t="s">

--- a/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
+++ b/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24DF69D6-42A2-4B8F-B121-9D8CED6E40CC}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7F71B57-F583-4580-86E8-B900C753C99B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
   </bookViews>
   <sheets>
     <sheet name="no_MALDI_ID PCR_candidates" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="256">
   <si>
     <t>Corynebac</t>
   </si>
@@ -822,12 +822,24 @@
   <si>
     <t>identified!</t>
   </si>
+  <si>
+    <t>NO DNA on gel 12.28.22</t>
+  </si>
+  <si>
+    <t>** update 12.29.22 **</t>
+  </si>
+  <si>
+    <t>re-submitting at 1:5 dilution (not 1:20), as previously tried</t>
+  </si>
+  <si>
+    <t>identified with rpob 12.7.22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,8 +878,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,6 +923,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -935,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -955,6 +998,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,6 +1012,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFDDDDDD"/>
@@ -1123,6 +1173,10 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2087,11 +2141,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C11C37-D12C-4268-90A4-1C0D958E2F90}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2316,6 +2370,251 @@
         <v>234</v>
       </c>
       <c r="E19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="E38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="E39" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2328,11 +2627,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7781F3C-2072-4D76-A323-34240553BFE1}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2786,6 +3085,447 @@
         <v>10.14</v>
       </c>
     </row>
+    <row r="45" spans="1:4" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2797,7 +3537,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3515,7 +4255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE50B8F-2807-40F8-AC83-B9FAC2ECE3BB}">
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>

--- a/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
+++ b/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
@@ -1,43 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7F71B57-F583-4580-86E8-B900C753C99B}"/>
+  <xr:revisionPtr revIDLastSave="750" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECB2C987-3266-4971-82C2-0A34384143EC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
   </bookViews>
   <sheets>
     <sheet name="no_MALDI_ID PCR_candidates" sheetId="1" r:id="rId1"/>
-    <sheet name="rpob mystery PCR status" sheetId="7" r:id="rId2"/>
+    <sheet name="PCR ID status" sheetId="10" r:id="rId2"/>
     <sheet name="16S mystery PCR status" sheetId="3" r:id="rId3"/>
-    <sheet name="16S for submission" sheetId="6" r:id="rId4"/>
-    <sheet name="rpob for submission" sheetId="8" r:id="rId5"/>
-    <sheet name="staph sp" sheetId="2" r:id="rId6"/>
+    <sheet name="rpob mystery PCR status" sheetId="7" r:id="rId4"/>
+    <sheet name="16S for submission" sheetId="6" r:id="rId5"/>
+    <sheet name="rpob for submission" sheetId="8" r:id="rId6"/>
+    <sheet name="repeat tuf 1.11.23" sheetId="9" r:id="rId7"/>
+    <sheet name="staph sp" sheetId="2" r:id="rId8"/>
+    <sheet name="checklist for updating DFs 1.18" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="418">
   <si>
     <t>Corynebac</t>
   </si>
@@ -834,12 +830,553 @@
   <si>
     <t>identified with rpob 12.7.22</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-------</t>
+  </si>
+  <si>
+    <t>lf079</t>
+  </si>
+  <si>
+    <t>vt029</t>
+  </si>
+  <si>
+    <t>lf015</t>
+  </si>
+  <si>
+    <t>lf019</t>
+  </si>
+  <si>
+    <t>lf067</t>
+  </si>
+  <si>
+    <t>gv089</t>
+  </si>
+  <si>
+    <t>ob016</t>
+  </si>
+  <si>
+    <t>gv136</t>
+  </si>
+  <si>
+    <t>vt064</t>
+  </si>
+  <si>
+    <t>do tuf PCR after initial rpoB or 16S Staph ID:</t>
+  </si>
+  <si>
+    <t>do exosap on, add into tuf workflow:</t>
+  </si>
+  <si>
+    <t>vt001</t>
+  </si>
+  <si>
+    <t>vt037</t>
+  </si>
+  <si>
+    <t>sp043</t>
+  </si>
+  <si>
+    <t>SW044-F</t>
+  </si>
+  <si>
+    <t>GV089-F</t>
+  </si>
+  <si>
+    <t>GV136-F</t>
+  </si>
+  <si>
+    <t>LF015-F</t>
+  </si>
+  <si>
+    <t>LF019-F</t>
+  </si>
+  <si>
+    <t>LF067-F</t>
+  </si>
+  <si>
+    <t>LF079-F</t>
+  </si>
+  <si>
+    <t>OB016-F</t>
+  </si>
+  <si>
+    <t>VT029-F</t>
+  </si>
+  <si>
+    <t>VT064-F</t>
+  </si>
+  <si>
+    <t>SP043-F</t>
+  </si>
+  <si>
+    <t>VT001-F</t>
+  </si>
+  <si>
+    <t>VT037-F</t>
+  </si>
+  <si>
+    <t>SW044-R</t>
+  </si>
+  <si>
+    <t>GV089-R</t>
+  </si>
+  <si>
+    <t>GV136-R</t>
+  </si>
+  <si>
+    <t>LF015-R</t>
+  </si>
+  <si>
+    <t>LF019-R</t>
+  </si>
+  <si>
+    <t>LF067-R</t>
+  </si>
+  <si>
+    <t>LF079-R</t>
+  </si>
+  <si>
+    <t>OB016-R</t>
+  </si>
+  <si>
+    <t>VT029-R</t>
+  </si>
+  <si>
+    <t>VT064-R</t>
+  </si>
+  <si>
+    <t>SP043-R</t>
+  </si>
+  <si>
+    <t>VT001-R</t>
+  </si>
+  <si>
+    <t>VT037-R</t>
+  </si>
+  <si>
+    <t>Isolate</t>
+  </si>
+  <si>
+    <t>Identified?</t>
+  </si>
+  <si>
+    <t>By what?</t>
+  </si>
+  <si>
+    <t>What is it?</t>
+  </si>
+  <si>
+    <t>Yes! Almost… ID'd as Staph. cohnii, but undergoing confirmation by tuf</t>
+  </si>
+  <si>
+    <t>rpoB</t>
+  </si>
+  <si>
+    <t>Staph. cohnii</t>
+  </si>
+  <si>
+    <t>Yes! Almost… ID'd as M. flueretti, but undergoing confirmation by tuf</t>
+  </si>
+  <si>
+    <t>M. fleuretti</t>
+  </si>
+  <si>
+    <t>Yes! Almost… ID'd as Staph. agnetis, but undergoing confirmation by tuf</t>
+  </si>
+  <si>
+    <t>Staph. agnetis</t>
+  </si>
+  <si>
+    <t>Yes! Almost… ID'd as Staph. chromogenes, but undergoing confirmation by tuf</t>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>Staph. chromogenes</t>
+  </si>
+  <si>
+    <t>GV 207 LH visit 2 (had IMI with cohnii for visit 1, ID'd by MALDI)</t>
+  </si>
+  <si>
+    <t>GV 207 LH visit 3 (had IMI with cohnii for visit 1, ID'd by MALDI)</t>
+  </si>
+  <si>
+    <t>LF Lilac RH visit 1 (had IMI with chromogenes for visit 3, ID'd by MALDI)</t>
+  </si>
+  <si>
+    <t>LF Lilac RH visit 2 (had IMI with chromogenes for visit 3, ID'd by MALDI)</t>
+  </si>
+  <si>
+    <t>Yes! Only one direction of rpoB sequenced well, but good enough…?</t>
+  </si>
+  <si>
+    <t>rpob</t>
+  </si>
+  <si>
+    <t>Strep. uberis</t>
+  </si>
+  <si>
+    <t>Yes! Wouldn't align, but both F and R sequences give same ID</t>
+  </si>
+  <si>
+    <t>Acinetobacter gandensis</t>
+  </si>
+  <si>
+    <t>Yes! Only R sequence worked, but…</t>
+  </si>
+  <si>
+    <t>Yes! Both F and R sequence called same thing, even though they wouldn't align</t>
+  </si>
+  <si>
+    <t>"Uncultured bacterium"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microbacterium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> species</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corynebacterium </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp.</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes! Only F sequence worked, but…</t>
+  </si>
+  <si>
+    <t>GV 42 LH visit 2 (had IMI with Strep. uberis ID'd by MALDI visit 3)</t>
+  </si>
+  <si>
+    <t>Yes? Closely enough… either 1 of 2 diff things which both F and R matched to</t>
+  </si>
+  <si>
+    <t>Arthobacter or Citricoccus</t>
+  </si>
+  <si>
+    <t>Arthobacter: Gram-positive obligate aerobes that are rods during exponential growth and cocci in their stationary phase; belong to  Micrococcaceae; Citricoccus is a Gram-positive and non-motile genus of bacteria from the family Micrococcaceae</t>
+  </si>
+  <si>
+    <t>Yes! Well, one sequence = Empedobacter and 1 "uncultured bacterium"…</t>
+  </si>
+  <si>
+    <t>?"Uncultured bacterium"?</t>
+  </si>
+  <si>
+    <t>Yes! Only R sequence worked, but… ID'd as either Coryne sp. or uncultured bac</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corynebacterium </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>74 RH second</t>
+  </si>
+  <si>
+    <t>74 RH third</t>
+  </si>
+  <si>
+    <t>think there is no DNA….</t>
+  </si>
+  <si>
+    <t>same as above but sorted by "status" now</t>
+  </si>
+  <si>
+    <t>Yes! Confirmed by tuf</t>
+  </si>
+  <si>
+    <t>rpob 11.23.22</t>
+  </si>
+  <si>
+    <t>rpob 11.22.22</t>
+  </si>
+  <si>
+    <t>16S 10.14.22 (gel/picture 10.18.22)</t>
+  </si>
+  <si>
+    <t>16S 10.14.22 (gel/picture 10.18.22) … really? don't see a bright band…</t>
+  </si>
+  <si>
+    <t>multiple bands!! on both 16S and rpob</t>
+  </si>
+  <si>
+    <t>16S 10.13.22</t>
+  </si>
+  <si>
+    <t>gram + cocci, tetrad</t>
+  </si>
+  <si>
+    <t>gram + pleo rods</t>
+  </si>
+  <si>
+    <t>gram + cocci</t>
+  </si>
+  <si>
+    <t>gram + long rods? doesn't look like normal coryne</t>
+  </si>
+  <si>
+    <t>Acinetobacter species</t>
+  </si>
+  <si>
+    <t>Corynebacterium species</t>
+  </si>
+  <si>
+    <t>Gram-positive organism</t>
+  </si>
+  <si>
+    <t>OB138</t>
+  </si>
+  <si>
+    <t>acinetobacter</t>
+  </si>
+  <si>
+    <t>Acinetobacter</t>
+  </si>
+  <si>
+    <t>other.grampos</t>
+  </si>
+  <si>
+    <t>Other.grampos</t>
+  </si>
+  <si>
+    <t>Microbacterium species</t>
+  </si>
+  <si>
+    <t>Microbacterium</t>
+  </si>
+  <si>
+    <t>Streptococcus uberis</t>
+  </si>
+  <si>
+    <t>Staphylococcus cohnii</t>
+  </si>
+  <si>
+    <t>staphylococcus fleurettii</t>
+  </si>
+  <si>
+    <t>Staphylococcus fleurettii</t>
+  </si>
+  <si>
+    <t>yes_from_noID_to_Acinetobacter</t>
+  </si>
+  <si>
+    <t>yes_from_noID_to_Microbacterium</t>
+  </si>
+  <si>
+    <t>yes_from_CNS_to_Acinetobacter</t>
+  </si>
+  <si>
+    <t>yes_from_Corynebac_to_Corynebac</t>
+  </si>
+  <si>
+    <t>yes_from_CNS_to_Grampos</t>
+  </si>
+  <si>
+    <t>yes_from_Strep_to_Strep</t>
+  </si>
+  <si>
+    <t>yes_from_CNS_to_CNS</t>
+  </si>
+  <si>
+    <t>yes_from_Strep_to_CNS</t>
+  </si>
+  <si>
+    <t>yes_from_CNS_to_Strep</t>
+  </si>
+  <si>
+    <t>yes_from_Corynebac_to_CNS</t>
+  </si>
+  <si>
+    <t>corynebacterium species</t>
+  </si>
+  <si>
+    <t>yes_from_corynebac_to_corynebac</t>
+  </si>
+  <si>
+    <t>acinetobacter species</t>
+  </si>
+  <si>
+    <t>yes_from_noID_to_acinetobacter</t>
+  </si>
+  <si>
+    <t>yes_from_cns_to_acinetobacter</t>
+  </si>
+  <si>
+    <t>yes_from_cns_to_cns</t>
+  </si>
+  <si>
+    <t>yes_from_corynebac_to_cns</t>
+  </si>
+  <si>
+    <t>strep</t>
+  </si>
+  <si>
+    <t>streptococcus uberis</t>
+  </si>
+  <si>
+    <t>yes_from_strep_to_strep</t>
+  </si>
+  <si>
+    <t>staphylococcus cohnii</t>
+  </si>
+  <si>
+    <t>staphylococcus chromogenes</t>
+  </si>
+  <si>
+    <t>yes_from_strep_to_cns</t>
+  </si>
+  <si>
+    <t>staphylococcus agnetis</t>
+  </si>
+  <si>
+    <t>yes_from_cns_to_strep</t>
+  </si>
+  <si>
+    <t>microbacterium</t>
+  </si>
+  <si>
+    <t>microbacterium species</t>
+  </si>
+  <si>
+    <t>yes_from_noID_to_microbacterium</t>
+  </si>
+  <si>
+    <t>gram-positive organism</t>
+  </si>
+  <si>
+    <t>yes_from_cns_to_grampos</t>
+  </si>
+  <si>
+    <t>yes_from_?_to_Gramneg.noncoli</t>
+  </si>
+  <si>
+    <t>Gram-neg noncoliform organism, rods</t>
+  </si>
+  <si>
+    <t>gram-neg noncoliform organism_rods</t>
+  </si>
+  <si>
+    <t>yes_from_?_to_gramneg.noncoli</t>
+  </si>
+  <si>
+    <t>gramneg.noncoli</t>
+  </si>
+  <si>
+    <t>Gram-neg noncoliform organism_rods</t>
+  </si>
+  <si>
+    <t>yes_from_staphspp_to_agnetis</t>
+  </si>
+  <si>
+    <t>try tuf? there's a sciuri in this quarter earlier</t>
+  </si>
+  <si>
+    <t>strep? there's a strep in this quarter later</t>
+  </si>
+  <si>
+    <t>i bet this is hyicus- try tuf? looking at other timepoints for this quarter</t>
+  </si>
+  <si>
+    <t>bet it's coryne</t>
+  </si>
+  <si>
+    <t>this seems super fishy- re-extract?</t>
+  </si>
+  <si>
+    <t>look at NMC handbook to compare, or grow another one ID'd by MALDI?</t>
+  </si>
+  <si>
+    <t>cat weak/delayed positive, g+ cocci (bigger, look like staph)</t>
+  </si>
+  <si>
+    <t>had IMI with chromogenes for visit 1 AND 3, ID'd by MALDI</t>
+  </si>
+  <si>
+    <t>g+ plump cocci, bigger than strep - cat POSITIVE, bright yellow</t>
+  </si>
+  <si>
+    <t>just update group name… was already ID'd by PCR</t>
+  </si>
+  <si>
+    <t>CAT NEG, gram stain g+ cocci in chains (there is a strep. uberis infection in this quarter third visit, which was ID'd by MALDI)</t>
+  </si>
+  <si>
+    <t>do i feel good about this ID?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>maybe?</t>
+  </si>
+  <si>
+    <t>eh</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,8 +1422,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFDDDDDD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,8 +1528,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -974,11 +1591,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -995,27 +1622,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9AC4E82A-7672-4BC0-8562-EA708CDF8FA8}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDDDDDD"/>
       <color rgb="FFFFCCFF"/>
+      <color rgb="FFFF9966"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFF9966"/>
-      <color rgb="FFDDDDDD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1157,26 +1824,6 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1469,7 +2116,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1477,20 +2124,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118912D8-D68D-4B1C-8500-D74DF975741E}">
-  <dimension ref="B1:J54"/>
+  <dimension ref="B1:R54"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A18" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" customWidth="1"/>
+    <col min="4" max="4" width="41.6328125" customWidth="1"/>
     <col min="5" max="5" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1502,7 +2149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1516,7 +2163,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1529,8 +2176,11 @@
       <c r="E3" s="3">
         <v>8000</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1543,8 +2193,11 @@
       <c r="E4" s="3">
         <v>36000</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1557,8 +2210,16 @@
       <c r="E5" s="3">
         <v>37000</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
@@ -1571,8 +2232,11 @@
       <c r="E7" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1585,8 +2249,11 @@
       <c r="E8" s="3">
         <v>230000</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1599,8 +2266,16 @@
       <c r="E9" s="3">
         <v>8000</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1613,8 +2288,11 @@
       <c r="E11" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1627,8 +2305,11 @@
       <c r="E12" s="3">
         <v>18000</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1641,8 +2322,11 @@
       <c r="E13" s="3">
         <v>77000</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1655,8 +2339,11 @@
       <c r="E14" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1669,8 +2356,11 @@
       <c r="E15" s="3">
         <v>1100000</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1683,8 +2373,11 @@
       <c r="E16" s="3">
         <v>19000</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1697,8 +2390,11 @@
       <c r="E17" s="3">
         <v>43000</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1711,8 +2407,11 @@
       <c r="E18" s="3">
         <v>120000</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1728,8 +2427,11 @@
       <c r="J19" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
@@ -1739,8 +2441,25 @@
       <c r="D20" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1753,8 +2472,20 @@
       <c r="E22" s="3">
         <v>4000000</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O22" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1767,8 +2498,20 @@
       <c r="E23" s="3">
         <v>4000000</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1781,8 +2524,20 @@
       <c r="E24" s="3">
         <v>66000</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R24" s="27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1795,8 +2550,34 @@
       <c r="E25" s="3">
         <v>111000</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O26" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1809,8 +2590,20 @@
       <c r="E27" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R27" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +2616,20 @@
       <c r="E28" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O28" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R28" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
@@ -1837,8 +2642,20 @@
       <c r="E29" s="3">
         <v>61000</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O29" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R29" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
@@ -1851,8 +2668,20 @@
       <c r="E30" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O30" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="R30" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +2694,20 @@
       <c r="E31" s="3">
         <v>970000</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O31" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q31" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="R31" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
@@ -1879,8 +2720,20 @@
       <c r="E32" s="3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O32" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="R32" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
@@ -1893,8 +2746,34 @@
       <c r="E33" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O33" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="R33" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O34" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q34" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="R34" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +2786,20 @@
       <c r="E35" s="3">
         <v>8000</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O35" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q35" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="R35" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>19</v>
       </c>
@@ -1921,8 +2812,20 @@
       <c r="E36" s="3">
         <v>34000</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O36" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="R36" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>18</v>
       </c>
@@ -1935,8 +2838,20 @@
       <c r="E37" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O37" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="R37" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
@@ -1949,8 +2864,20 @@
       <c r="E38" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O38" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R38" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>16</v>
       </c>
@@ -1963,8 +2890,34 @@
       <c r="E39" s="3">
         <v>30000</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O39" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P39" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="R39" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O40" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R40" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
         <v>14</v>
       </c>
@@ -1977,8 +2930,20 @@
       <c r="E41" s="3">
         <v>26000</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="O41" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q41" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="R41" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
         <v>13</v>
       </c>
@@ -1992,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>12</v>
       </c>
@@ -2006,7 +2971,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
@@ -2020,7 +2985,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +2999,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
@@ -2133,6 +3098,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:R41">
+    <sortCondition sortBy="cellColor" ref="O3:O41" dxfId="1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2140,12 +3108,1899 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C46829-2389-456A-A40F-F8000B620D6F}">
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="125.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="E30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="E31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="E34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
+    <sortCondition sortBy="cellColor" ref="A2:A40" dxfId="0"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7781F3C-2072-4D76-A323-34240553BFE1}">
+  <dimension ref="A1:D84"/>
+  <sheetViews>
+    <sheetView zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="78.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C11C37-D12C-4268-90A4-1C0D958E2F90}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2374,50 +5229,50 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2450,35 +5305,35 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" t="s">
         <v>236</v>
       </c>
       <c r="D29" t="s">
@@ -2486,24 +5341,24 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D31" t="s">
@@ -2511,13 +5366,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D32" t="s">
@@ -2525,13 +5380,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D33" t="s">
@@ -2539,13 +5394,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D34" t="s">
@@ -2553,13 +5408,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D35" t="s">
@@ -2567,13 +5422,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D36" t="s">
@@ -2581,13 +5436,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D37" t="s">
@@ -2625,919 +5480,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7781F3C-2072-4D76-A323-34240553BFE1}">
-  <dimension ref="A1:D84"/>
-  <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="78.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="2">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="2">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C51" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" t="s">
-        <v>211</v>
-      </c>
-      <c r="C53">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" t="s">
-        <v>211</v>
-      </c>
-      <c r="C56">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C57" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C58" s="2">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" t="s">
-        <v>211</v>
-      </c>
-      <c r="C61">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C62" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" t="s">
-        <v>211</v>
-      </c>
-      <c r="C64">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="2">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" t="s">
-        <v>211</v>
-      </c>
-      <c r="C68">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C69" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" t="s">
-        <v>211</v>
-      </c>
-      <c r="C78">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D79" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C82" s="2">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D82" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>211</v>
-      </c>
-      <c r="C83">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4307D245-77E7-4043-9301-6BB92C496448}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3565,6 +5513,9 @@
       <c r="A3" t="s">
         <v>48</v>
       </c>
+      <c r="B3" t="s">
+        <v>256</v>
+      </c>
       <c r="H3" t="s">
         <v>48</v>
       </c>
@@ -3576,6 +5527,9 @@
       <c r="A4" t="s">
         <v>46</v>
       </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
@@ -3590,6 +5544,9 @@
       <c r="A5" t="s">
         <v>45</v>
       </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
       <c r="H5" t="s">
         <v>45</v>
       </c>
@@ -3601,6 +5558,9 @@
       <c r="A6" t="s">
         <v>44</v>
       </c>
+      <c r="B6" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
@@ -3612,6 +5572,9 @@
       <c r="A7" t="s">
         <v>42</v>
       </c>
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
       <c r="H7" t="s">
         <v>42</v>
       </c>
@@ -3623,6 +5586,9 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
+      <c r="B8" t="s">
+        <v>256</v>
+      </c>
       <c r="H8" t="s">
         <v>39</v>
       </c>
@@ -3634,6 +5600,9 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
+      <c r="B9" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="H9" t="s">
         <v>38</v>
       </c>
@@ -3645,6 +5614,9 @@
       <c r="A10" t="s">
         <v>37</v>
       </c>
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
       <c r="H10" t="s">
         <v>37</v>
       </c>
@@ -3656,6 +5628,9 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
       <c r="H11" t="s">
         <v>34</v>
       </c>
@@ -3667,6 +5642,9 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
+      <c r="B12" t="s">
+        <v>256</v>
+      </c>
       <c r="H12" t="s">
         <v>32</v>
       </c>
@@ -3678,6 +5656,9 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
       <c r="H13" t="s">
         <v>31</v>
       </c>
@@ -3689,6 +5670,9 @@
       <c r="A14" t="s">
         <v>27</v>
       </c>
+      <c r="B14" t="s">
+        <v>256</v>
+      </c>
       <c r="H14" t="s">
         <v>27</v>
       </c>
@@ -3700,6 +5684,9 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
+      <c r="B15" t="s">
+        <v>256</v>
+      </c>
       <c r="H15" t="s">
         <v>26</v>
       </c>
@@ -3711,6 +5698,9 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
       <c r="H16" t="s">
         <v>22</v>
       </c>
@@ -3722,6 +5712,9 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
@@ -3733,6 +5726,9 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="B18" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="H18" t="s">
         <v>17</v>
       </c>
@@ -3744,6 +5740,9 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
       <c r="H19" t="s">
         <v>13</v>
       </c>
@@ -3755,6 +5754,9 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
+      <c r="B20" t="s">
+        <v>256</v>
+      </c>
       <c r="H20" t="s">
         <v>9</v>
       </c>
@@ -3766,6 +5768,9 @@
       <c r="A21" t="s">
         <v>8</v>
       </c>
+      <c r="B21" t="s">
+        <v>256</v>
+      </c>
       <c r="H21" t="s">
         <v>8</v>
       </c>
@@ -3777,6 +5782,9 @@
       <c r="A22" t="s">
         <v>6</v>
       </c>
+      <c r="B22" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="H22" t="s">
         <v>6</v>
       </c>
@@ -3788,6 +5796,9 @@
       <c r="A23" t="s">
         <v>1</v>
       </c>
+      <c r="B23" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="H23" s="11" t="s">
         <v>1</v>
       </c>
@@ -3804,11 +5815,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="H25" t="s">
         <v>46</v>
       </c>
@@ -3977,12 +5988,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27A51CA-3C98-47F7-B7C2-43E96BE2B05C}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4251,12 +6262,206 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFBA209-62D5-44EE-B0B1-6DF8C53D4CC4}">
+  <dimension ref="A3:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="J3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E4" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E5" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E6" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E7" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E8" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E9" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E10" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E12" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E15" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E16" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E17" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E18" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J19" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J20" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J21" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J22" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J23" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J24" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J25" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE50B8F-2807-40F8-AC83-B9FAC2ECE3BB}">
   <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5985,4 +8190,1046 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9064E65A-6C38-4B5A-8F69-2D39CD470492}">
+  <dimension ref="A4:J52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="58" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="64.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="46.7265625" customWidth="1"/>
+    <col min="6" max="6" width="38.6328125" customWidth="1"/>
+    <col min="7" max="7" width="50.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="125.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="J8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>360</v>
+      </c>
+      <c r="F12" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="38"/>
+      <c r="B13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15" t="s">
+        <v>370</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s">
+        <v>370</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="J16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="J17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" t="s">
+        <v>370</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="J18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="J19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>370</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" t="s">
+        <v>372</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="J21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" t="s">
+        <v>355</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" t="s">
+        <v>367</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>363</v>
+      </c>
+      <c r="F24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="38"/>
+      <c r="B25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>399</v>
+      </c>
+      <c r="F25" t="s">
+        <v>394</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" t="s">
+        <v>354</v>
+      </c>
+      <c r="E30" t="s">
+        <v>376</v>
+      </c>
+      <c r="F30" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" t="s">
+        <v>354</v>
+      </c>
+      <c r="E31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" t="s">
+        <v>374</v>
+      </c>
+      <c r="F32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E33" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" t="s">
+        <v>354</v>
+      </c>
+      <c r="E34" t="s">
+        <v>376</v>
+      </c>
+      <c r="F34" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>374</v>
+      </c>
+      <c r="F35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" t="s">
+        <v>389</v>
+      </c>
+      <c r="E36" t="s">
+        <v>390</v>
+      </c>
+      <c r="F36" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" t="s">
+        <v>381</v>
+      </c>
+      <c r="E37" t="s">
+        <v>382</v>
+      </c>
+      <c r="F37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" t="s">
+        <v>398</v>
+      </c>
+      <c r="E38" t="s">
+        <v>396</v>
+      </c>
+      <c r="F38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" t="s">
+        <v>384</v>
+      </c>
+      <c r="F39" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="s">
+        <v>384</v>
+      </c>
+      <c r="F40" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="D41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" t="s">
+        <v>385</v>
+      </c>
+      <c r="F41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="D42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" t="s">
+        <v>385</v>
+      </c>
+      <c r="F42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>385</v>
+      </c>
+      <c r="F43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" t="s">
+        <v>385</v>
+      </c>
+      <c r="F44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="F45" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" t="s">
+        <v>381</v>
+      </c>
+      <c r="E46" t="s">
+        <v>382</v>
+      </c>
+      <c r="F46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="E47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" t="s">
+        <v>374</v>
+      </c>
+      <c r="F48" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" t="s">
+        <v>362</v>
+      </c>
+      <c r="F49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" t="s">
+        <v>398</v>
+      </c>
+      <c r="E50" t="s">
+        <v>396</v>
+      </c>
+      <c r="F50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" t="s">
+        <v>362</v>
+      </c>
+      <c r="F51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" t="s">
+        <v>387</v>
+      </c>
+      <c r="F52" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
+++ b/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="750" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECB2C987-3266-4971-82C2-0A34384143EC}"/>
+  <xr:revisionPtr revIDLastSave="769" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70A94467-A59D-46B1-B43E-FEFDD25D5681}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="7800" windowHeight="10170" firstSheet="3" activeTab="3" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
   </bookViews>
   <sheets>
     <sheet name="no_MALDI_ID PCR_candidates" sheetId="1" r:id="rId1"/>
     <sheet name="PCR ID status" sheetId="10" r:id="rId2"/>
-    <sheet name="16S mystery PCR status" sheetId="3" r:id="rId3"/>
-    <sheet name="rpob mystery PCR status" sheetId="7" r:id="rId4"/>
-    <sheet name="16S for submission" sheetId="6" r:id="rId5"/>
-    <sheet name="rpob for submission" sheetId="8" r:id="rId6"/>
-    <sheet name="repeat tuf 1.11.23" sheetId="9" r:id="rId7"/>
-    <sheet name="staph sp" sheetId="2" r:id="rId8"/>
-    <sheet name="checklist for updating DFs 1.18" sheetId="11" r:id="rId9"/>
+    <sheet name="checklist for updating DFs 1.18" sheetId="11" r:id="rId3"/>
+    <sheet name="for repeat MALDI" sheetId="12" r:id="rId4"/>
+    <sheet name="16S mystery PCR status" sheetId="3" r:id="rId5"/>
+    <sheet name="rpob mystery PCR status" sheetId="7" r:id="rId6"/>
+    <sheet name="16S for submission" sheetId="6" r:id="rId7"/>
+    <sheet name="rpob for submission" sheetId="8" r:id="rId8"/>
+    <sheet name="repeat tuf 1.11.23" sheetId="9" r:id="rId9"/>
+    <sheet name="staph sp" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="427">
   <si>
     <t>Corynebac</t>
   </si>
@@ -1348,9 +1349,6 @@
     <t>g+ plump cocci, bigger than strep - cat POSITIVE, bright yellow</t>
   </si>
   <si>
-    <t>just update group name… was already ID'd by PCR</t>
-  </si>
-  <si>
     <t>CAT NEG, gram stain g+ cocci in chains (there is a strep. uberis infection in this quarter third visit, which was ID'd by MALDI)</t>
   </si>
   <si>
@@ -1369,14 +1367,44 @@
     <t>yeah</t>
   </si>
   <si>
-    <t>….</t>
+    <t>Actually DO feel GREAT about these…</t>
+  </si>
+  <si>
+    <t>just didn't look similar to each other, or other fleuretti, on blood agar</t>
+  </si>
+  <si>
+    <t>called chrom… but doesn't look like another chrom from CF (CF26)</t>
+  </si>
+  <si>
+    <t>(all these 5 are updated in prev/inc pairs CSV)</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staph. vitulinus </t>
+  </si>
+  <si>
+    <t>Kocuria carniphila</t>
+  </si>
+  <si>
+    <t>Brevibacterium epidermidis</t>
+  </si>
+  <si>
+    <t>Corynebacterium variabile</t>
+  </si>
+  <si>
+    <t>UVM MALDI ID</t>
+  </si>
+  <si>
+    <t>cat weak/delayed positive, g+ cocci (bigger, look like staph); interestingly the second obs in this quarter is lf061 which is a chrom by maldi, and had originally been ID'd as a strep… bc delayed cat?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1466,8 +1494,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1564,6 +1601,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1605,7 +1648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1643,16 +1686,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,9 +1726,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFDDDDDD"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF9966"/>
+      <color rgb="FFDDDDDD"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -1824,6 +1871,18 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2116,7 +2175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2126,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118912D8-D68D-4B1C-8500-D74DF975741E}">
   <dimension ref="B1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:D36"/>
+    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3107,3356 +3166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C46829-2389-456A-A40F-F8000B620D6F}">
-  <dimension ref="A1:E81"/>
-  <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="64" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="125.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>340</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>340</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>340</v>
-      </c>
-      <c r="D18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="E23" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="E29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="E30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="E34" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="E36" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="E50" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="E61" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="E62" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="E64" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="E68" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="E70" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
-    <sortCondition sortBy="cellColor" ref="A2:A40" dxfId="0"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7781F3C-2072-4D76-A323-34240553BFE1}">
-  <dimension ref="A1:D84"/>
-  <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="78.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="2">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="2">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C51" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" t="s">
-        <v>211</v>
-      </c>
-      <c r="C53">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" t="s">
-        <v>211</v>
-      </c>
-      <c r="C56">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C57" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C58" s="2">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" t="s">
-        <v>211</v>
-      </c>
-      <c r="C61">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C62" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" t="s">
-        <v>211</v>
-      </c>
-      <c r="C64">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="2">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" t="s">
-        <v>211</v>
-      </c>
-      <c r="C68">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C69" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" s="2">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" t="s">
-        <v>211</v>
-      </c>
-      <c r="C78">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D79" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80">
-        <v>10.130000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C82" s="2">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="D82" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>211</v>
-      </c>
-      <c r="C83">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C11C37-D12C-4268-90A4-1C0D958E2F90}">
-  <dimension ref="A1:E39"/>
-  <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="78.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="E7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="E10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="E13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" t="s">
-        <v>236</v>
-      </c>
-      <c r="D29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D34" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D35" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D37" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="E38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="E39" t="s">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4307D245-77E7-4043-9301-6BB92C496448}">
-  <dimension ref="A1:K44"/>
-  <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="I2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>256</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>256</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>256</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>256</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>256</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="H22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H34" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H44" t="s">
-        <v>1</v>
-      </c>
-      <c r="I44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A25:C25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27A51CA-3C98-47F7-B7C2-43E96BE2B05C}">
-  <dimension ref="B1:F32"/>
-  <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFBA209-62D5-44EE-B0B1-6DF8C53D4CC4}">
-  <dimension ref="A3:J28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="J3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E4" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="J4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E5" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E6" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E7" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E8" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E9" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E10" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E11" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E12" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="J14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E15" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E16" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="J16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E17" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="J17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E18" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="J19" s="23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="J20" s="23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="J21" s="23" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="J22" s="23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="J23" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="J24" s="23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="J25" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="J26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="J27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="J28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE50B8F-2807-40F8-AC83-B9FAC2ECE3BB}">
   <dimension ref="A1:T84"/>
   <sheetViews>
@@ -8192,21 +4902,1001 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C46829-2389-456A-A40F-F8000B620D6F}">
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="125.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="E31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="E34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
+    <sortCondition sortBy="cellColor" ref="A2:A40" dxfId="0"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9064E65A-6C38-4B5A-8F69-2D39CD470492}">
-  <dimension ref="A4:J52"/>
+  <dimension ref="A4:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="58" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A28" zoomScale="77" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="64.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" customWidth="1"/>
-    <col min="5" max="5" width="46.7265625" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" customWidth="1"/>
+    <col min="3" max="3" width="6.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="34.08984375" customWidth="1"/>
     <col min="6" max="6" width="38.6328125" customWidth="1"/>
     <col min="7" max="7" width="50.08984375" customWidth="1"/>
     <col min="8" max="8" width="14.26953125" customWidth="1"/>
@@ -8216,15 +5906,15 @@
   <sheetData>
     <row r="4" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>415</v>
+      <c r="C5" t="s">
+        <v>414</v>
       </c>
       <c r="D5" t="s">
         <v>355</v>
@@ -8249,8 +5939,8 @@
       <c r="B6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>415</v>
+      <c r="C6" t="s">
+        <v>414</v>
       </c>
       <c r="D6" t="s">
         <v>355</v>
@@ -8275,8 +5965,8 @@
       <c r="B7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>416</v>
+      <c r="C7" t="s">
+        <v>415</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -8301,8 +5991,8 @@
       <c r="B8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>415</v>
+      <c r="C8" t="s">
+        <v>414</v>
       </c>
       <c r="D8" t="s">
         <v>357</v>
@@ -8330,8 +6020,8 @@
       <c r="B9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>415</v>
+      <c r="C9" t="s">
+        <v>414</v>
       </c>
       <c r="D9" t="s">
         <v>355</v>
@@ -8356,8 +6046,8 @@
       <c r="B10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>416</v>
+      <c r="C10" t="s">
+        <v>415</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -8382,8 +6072,8 @@
       <c r="B11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>415</v>
+      <c r="C11" t="s">
+        <v>414</v>
       </c>
       <c r="D11" t="s">
         <v>359</v>
@@ -8405,14 +6095,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>406</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>414</v>
+      <c r="C12" s="36" t="s">
+        <v>413</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -8433,16 +6123,16 @@
         <v>318</v>
       </c>
       <c r="J12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
+      <c r="A13"/>
       <c r="B13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>415</v>
+      <c r="C13" t="s">
+        <v>414</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -8467,7 +6157,7 @@
       <c r="B14" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="37" t="s">
         <v>211</v>
       </c>
       <c r="D14" t="s">
@@ -8496,7 +6186,7 @@
       <c r="B15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="37" t="s">
         <v>211</v>
       </c>
       <c r="D15" t="s">
@@ -8525,7 +6215,7 @@
       <c r="B16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="37" t="s">
         <v>211</v>
       </c>
       <c r="D16" t="s">
@@ -8551,14 +6241,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>406</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>414</v>
+      <c r="C17" s="36" t="s">
+        <v>413</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -8586,7 +6276,7 @@
       <c r="B18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="37" t="s">
         <v>211</v>
       </c>
       <c r="D18" t="s">
@@ -8615,7 +6305,7 @@
       <c r="B19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="37" t="s">
         <v>211</v>
       </c>
       <c r="D19" t="s">
@@ -8644,13 +6334,13 @@
       <c r="B20" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>416</v>
+      <c r="C20" t="s">
+        <v>415</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>126</v>
       </c>
       <c r="F20" t="s">
@@ -8667,14 +6357,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="35" t="s">
         <v>405</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -8699,125 +6389,126 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>410</v>
-      </c>
       <c r="B22" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>417</v>
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>415</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>355</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+        <v>351</v>
+      </c>
+      <c r="F22" t="s">
+        <v>367</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B23" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>416</v>
+        <v>9</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>412</v>
       </c>
       <c r="D23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F23" t="s">
-        <v>367</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="H23" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H23" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="I23" s="28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>413</v>
+      <c r="I23" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24"/>
+      <c r="B24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>414</v>
       </c>
       <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>399</v>
+      </c>
+      <c r="F24" t="s">
+        <v>394</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>363</v>
       </c>
-      <c r="F24" t="s">
-        <v>370</v>
-      </c>
-      <c r="G24" s="25" t="s">
+      <c r="F25" t="s">
+        <v>373</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="I24" s="26" t="s">
+      <c r="H25" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="I25" s="26" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
-      <c r="B25" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>399</v>
-      </c>
-      <c r="F25" t="s">
-        <v>394</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>363</v>
-      </c>
-      <c r="F26" t="s">
-        <v>373</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>306</v>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" t="s">
+        <v>376</v>
+      </c>
+      <c r="F29" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -8825,7 +6516,7 @@
         <v>256</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" t="s">
@@ -8835,7 +6526,7 @@
         <v>376</v>
       </c>
       <c r="F30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -8843,17 +6534,17 @@
         <v>256</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -8861,17 +6552,17 @@
         <v>256</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="E32" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="F32" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -8879,17 +6570,17 @@
         <v>256</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E33" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="F33" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -8897,17 +6588,17 @@
         <v>256</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F34" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -8915,17 +6606,17 @@
         <v>256</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="E35" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="F35" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -8933,53 +6624,53 @@
         <v>256</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E36" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F36" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="27"/>
+      <c r="B37" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="14"/>
       <c r="D37" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="E37" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="F37" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="A38" t="s">
         <v>256</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="14"/>
+      <c r="B38" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="32"/>
       <c r="D38" t="s">
-        <v>398</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F38" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -8987,7 +6678,7 @@
         <v>256</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" t="s">
@@ -9005,14 +6696,14 @@
         <v>256</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" t="s">
         <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F40" t="s">
         <v>379</v>
@@ -9023,7 +6714,7 @@
         <v>256</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" t="s">
@@ -9033,7 +6724,7 @@
         <v>385</v>
       </c>
       <c r="F41" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -9041,7 +6732,7 @@
         <v>256</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" s="32"/>
       <c r="D42" t="s">
@@ -9051,7 +6742,7 @@
         <v>385</v>
       </c>
       <c r="F42" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -9059,7 +6750,7 @@
         <v>256</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" t="s">
@@ -9077,14 +6768,14 @@
         <v>256</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" t="s">
         <v>122</v>
       </c>
-      <c r="E44" t="s">
-        <v>385</v>
+      <c r="E44" s="33" t="s">
+        <v>387</v>
       </c>
       <c r="F44" t="s">
         <v>379</v>
@@ -9095,17 +6786,17 @@
         <v>256</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="32"/>
       <c r="D45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>387</v>
+        <v>381</v>
+      </c>
+      <c r="E45" t="s">
+        <v>382</v>
       </c>
       <c r="F45" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -9113,17 +6804,11 @@
         <v>256</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="C46" s="32"/>
-      <c r="D46" t="s">
-        <v>381</v>
-      </c>
       <c r="E46" t="s">
-        <v>382</v>
-      </c>
-      <c r="F46" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -9131,11 +6816,17 @@
         <v>256</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>353</v>
+        <v>13</v>
       </c>
       <c r="C47" s="32"/>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
       <c r="E47" t="s">
-        <v>354</v>
+        <v>374</v>
+      </c>
+      <c r="F47" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -9143,53 +6834,53 @@
         <v>256</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C48" s="32"/>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F48" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="32"/>
+      <c r="B49" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="14"/>
       <c r="D49" t="s">
+        <v>398</v>
+      </c>
+      <c r="E49" t="s">
+        <v>396</v>
+      </c>
+      <c r="F49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" t="s">
         <v>122</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>362</v>
       </c>
-      <c r="F49" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" t="s">
-        <v>398</v>
-      </c>
-      <c r="E50" t="s">
-        <v>396</v>
-      </c>
       <c r="F50" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -9197,35 +6888,3080 @@
         <v>256</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>5</v>
+        <v>241</v>
       </c>
       <c r="C51" s="32"/>
       <c r="D51" t="s">
         <v>122</v>
       </c>
       <c r="E51" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="F51" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497CAA4F-2707-4EC9-BEA2-5FDE2D197198}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="65" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="75.1796875" customWidth="1"/>
+    <col min="8" max="8" width="125.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>420</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>420</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>420</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>420</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>420</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="H27" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>420</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="H29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="G31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="G33" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>420</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>420</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="G35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7781F3C-2072-4D76-A323-34240553BFE1}">
+  <dimension ref="A1:D84"/>
+  <sheetViews>
+    <sheetView zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="78.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C11C37-D12C-4268-90A4-1C0D958E2F90}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="78.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="E13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="E38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="E39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4307D245-77E7-4043-9301-6BB92C496448}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>256</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" t="s">
-        <v>387</v>
-      </c>
-      <c r="F52" t="s">
-        <v>400</v>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27A51CA-3C98-47F7-B7C2-43E96BE2B05C}">
+  <dimension ref="B1:F32"/>
+  <sheetViews>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFBA209-62D5-44EE-B0B1-6DF8C53D4CC4}">
+  <dimension ref="A3:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="J3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E4" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E5" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E6" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E7" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E8" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E9" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E10" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E12" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E15" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E16" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E17" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E18" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J19" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J20" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J21" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J22" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J23" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J24" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J25" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J28" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
+++ b/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="769" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70A94467-A59D-46B1-B43E-FEFDD25D5681}"/>
+  <xr:revisionPtr revIDLastSave="772" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2E312A-873E-4ABE-A146-0F2734649AFA}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="7800" windowHeight="10170" firstSheet="3" activeTab="3" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" firstSheet="1" activeTab="2" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
   </bookViews>
   <sheets>
     <sheet name="no_MALDI_ID PCR_candidates" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="433">
   <si>
     <t>Corynebac</t>
   </si>
@@ -1399,12 +1399,30 @@
   <si>
     <t>cat weak/delayed positive, g+ cocci (bigger, look like staph); interestingly the second obs in this quarter is lf061 which is a chrom by maldi, and had originally been ID'd as a strep… bc delayed cat?</t>
   </si>
+  <si>
+    <t>culture, extract, tuf pcr - sciuri?</t>
+  </si>
+  <si>
+    <t>culture, extract, tuf pcr - vitulinus?</t>
+  </si>
+  <si>
+    <t>culture, extract, …  pcr - what are you?</t>
+  </si>
+  <si>
+    <t>culture, make new stock bc contam</t>
+  </si>
+  <si>
+    <t>BJ016</t>
+  </si>
+  <si>
+    <t>XXX JUNE 2023 XXX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,6 +1516,14 @@
       <b/>
       <i/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1648,7 +1674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1700,6 +1726,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1726,10 +1753,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFDDDDDD"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2185,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118912D8-D68D-4B1C-8500-D74DF975741E}">
   <dimension ref="B1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="A4" zoomScale="50" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4906,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C46829-2389-456A-A40F-F8000B620D6F}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="50" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" activeCellId="1" sqref="A17:XFD17 A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5884,10 +5911,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9064E65A-6C38-4B5A-8F69-2D39CD470492}">
-  <dimension ref="A4:J51"/>
+  <dimension ref="A4:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="77" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="48" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6901,6 +6928,80 @@
         <v>400</v>
       </c>
     </row>
+    <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="B57" s="45"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="45" t="s">
+        <v>427</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6911,8 +7012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497CAA4F-2707-4EC9-BEA2-5FDE2D197198}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="65" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="65" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
+++ b/OREI_files/10-herd data/list_for_PCR_ID_10_21_21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="772" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2E312A-873E-4ABE-A146-0F2734649AFA}"/>
+  <xr:revisionPtr revIDLastSave="779" documentId="8_{92FD1F0A-DFCA-4314-AA45-C3C95A2745CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A7774D2-9392-4182-8A53-C2D7566DF4E4}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" firstSheet="1" activeTab="2" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{BC8A019D-521C-4D08-833A-68A688945568}"/>
   </bookViews>
   <sheets>
     <sheet name="no_MALDI_ID PCR_candidates" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="435">
   <si>
     <t>Corynebac</t>
   </si>
@@ -1416,6 +1416,12 @@
   </si>
   <si>
     <t>XXX JUNE 2023 XXX</t>
+  </si>
+  <si>
+    <t>culture, extract, tuf pcr - fleuretti?</t>
+  </si>
+  <si>
+    <t>VT064/69</t>
   </si>
 </sst>
 </file>
@@ -1723,10 +1729,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1910,6 +1916,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -4933,8 +4943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C46829-2389-456A-A40F-F8000B620D6F}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" activeCellId="1" sqref="A17:XFD17 A14:XFD14"/>
+    <sheetView zoomScale="69" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5911,10 +5921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9064E65A-6C38-4B5A-8F69-2D39CD470492}">
-  <dimension ref="A4:J67"/>
+  <dimension ref="A4:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="48" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="63" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6929,78 +6939,95 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="B57" s="45"/>
+      <c r="B57" s="44"/>
     </row>
     <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="44" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
+      <c r="A60" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B62" s="44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-    </row>
     <row r="63" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B64" s="44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="45" t="s">
+    <row r="65" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B65" s="44" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="45" t="s">
+      <c r="C65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B66" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="45" t="s">
+      <c r="C66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B67" s="44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
+      <c r="C67" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7012,8 +7039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497CAA4F-2707-4EC9-BEA2-5FDE2D197198}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="A4" zoomScale="65" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7707,7 +7734,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -8615,7 +8642,7 @@
   <sheetViews>
     <sheetView zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9100,7 +9127,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD23"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9430,11 +9457,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
       <c r="H25" t="s">
         <v>46</v>
       </c>
@@ -9881,8 +9908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFBA209-62D5-44EE-B0B1-6DF8C53D4CC4}">
   <dimension ref="A3:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
